--- a/Check.xlsx
+++ b/Check.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Проверка</t>
   </si>
@@ -136,18 +136,32 @@
   </si>
   <si>
     <t>Поля логин и пароль пустые</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>Результат</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,16 +194,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,26 +492,31 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.140625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -507,37 +529,47 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -550,37 +582,47 @@
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -593,49 +635,63 @@
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -648,91 +704,119 @@
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -745,13 +829,17 @@
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>Проверка</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Страница "News"</t>
   </si>
   <si>
-    <t>Развернуть новость</t>
-  </si>
-  <si>
-    <t>Открытие фильтрация новостей</t>
-  </si>
-  <si>
     <t>Фильтрация новостей по категории "Объявление"</t>
   </si>
   <si>
@@ -102,27 +96,6 @@
     <t>Фильтрация новостей по категории "Нужна помощь"</t>
   </si>
   <si>
-    <t>Фильтрация новостей за период</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей с вводом только конечного значения периода</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей с вводом только начального значения периода</t>
-  </si>
-  <si>
-    <t>Отмена фильтрации новостей</t>
-  </si>
-  <si>
-    <t>Страница тематических цитат</t>
-  </si>
-  <si>
-    <t>Переход на страницу тематических цитат</t>
-  </si>
-  <si>
-    <t>Развернуть тематическую цитату</t>
-  </si>
-  <si>
     <t>Создание новой претензии (Chaims) с полностью заполнеными валидными полями</t>
   </si>
   <si>
@@ -141,7 +114,22 @@
     <t>пройден</t>
   </si>
   <si>
-    <t>Результат</t>
+    <t>Страница "About"</t>
+  </si>
+  <si>
+    <t>Переход по ссылке "Политика конфиденциальности"</t>
+  </si>
+  <si>
+    <t>Переход по ссылке "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t>Сортировка новостей</t>
+  </si>
+  <si>
+    <t>Результат ручного тестирования</t>
+  </si>
+  <si>
+    <t>Результат автоматического тестирования</t>
   </si>
 </sst>
 </file>
@@ -489,17 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -507,7 +494,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -515,9 +505,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -530,39 +522,54 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -570,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -583,7 +590,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -591,7 +601,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -599,7 +612,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -607,7 +623,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -615,7 +634,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -623,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -633,10 +655,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -644,7 +669,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -652,7 +680,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -660,7 +691,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -668,7 +702,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,7 +713,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -684,7 +724,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -692,7 +735,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -702,143 +745,136 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
